--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_33.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2808048.660497631</v>
+        <v>2821911.691206188</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.7357022</v>
+        <v>2346514.735702197</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8988586.153475817</v>
+        <v>8988586.153475815</v>
       </c>
     </row>
     <row r="11">
@@ -659,73 +659,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>102.2133755837553</v>
+      </c>
+      <c r="H2" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>141.0252816852793</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>236.3626115273232</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>113.4063515544932</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>88.21024760771087</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.932250645712</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>160.1989433021659</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.6773952840985035</v>
       </c>
     </row>
     <row r="5">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464208</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="G5" t="n">
         <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>105.7261504270669</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>121.4007481104387</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281889</v>
+        <v>80.69052336281877</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129695</v>
+        <v>84.45800155129672</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>54.00316531736726</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>50.77855049633794</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>122.24367656536</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358491</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>55.13957087282883</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>79.22210190382104</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>211.5069819556871</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.7756050755988</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>55.09864177007217</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>227.764903684593</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>20.51759809046666</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174132</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.4304744104651</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>280.1103339106654</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417119</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896919</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>114.1337065797943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249799</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>24.80172075299137</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>235.9535806741831</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2485,13 +2485,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>122.3137095599321</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>192.3589683944638</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2731,7 +2731,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>92.75213693100919</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>159.7484645753324</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274066</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.8066325228118</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>185.1778893774797</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,13 +3080,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>168.0440194998703</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>122.2151751544595</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,25 +3266,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>96.37251068086466</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3661,22 +3661,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>212.4198423655588</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,10 +3746,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,19 +3901,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>212.9016161965996</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,7 +4034,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.26783514703939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,13 +4192,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>67.54481623479278</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>865.8759421555601</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="C2" t="n">
-        <v>586.9299687188374</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="D2" t="n">
-        <v>586.9299687188374</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="E2" t="n">
-        <v>307.9839952821146</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="F2" t="n">
+        <v>404.2843284558963</v>
+      </c>
+      <c r="G2" t="n">
         <v>301.0384945329112</v>
-      </c>
-      <c r="G2" t="n">
-        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
         <v>22.09252109618844</v>
@@ -4328,19 +4328,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901066</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="W2" t="n">
-        <v>865.8759421555601</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="X2" t="n">
-        <v>865.8759421555601</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="Y2" t="n">
-        <v>865.8759421555601</v>
+        <v>683.2303018926191</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196.5455503773155</v>
+        <v>336.9585371372239</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09252109618844</v>
+        <v>336.9585371372239</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618844</v>
+        <v>336.9585371372239</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618844</v>
+        <v>336.9585371372239</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>336.9585371372239</v>
       </c>
       <c r="G3" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H3" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>22.09252109618844</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>22.09252109618844</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="M3" t="n">
-        <v>288.9361218459458</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112777</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U3" t="n">
-        <v>1104.626054809422</v>
+        <v>779.9621455744993</v>
       </c>
       <c r="V3" t="n">
-        <v>869.4739465776793</v>
+        <v>544.8100373427567</v>
       </c>
       <c r="W3" t="n">
-        <v>780.3726863678703</v>
+        <v>544.8100373427567</v>
       </c>
       <c r="X3" t="n">
-        <v>572.5211861623375</v>
+        <v>336.9585371372239</v>
       </c>
       <c r="Y3" t="n">
-        <v>364.7608873973835</v>
+        <v>336.9585371372239</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
         <v>22.09252109618844</v>
@@ -4510,28 +4510,28 @@
         <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="W4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="X4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.776758756894</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.17560255650359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.518124367593</v>
+        <v>789.5032273314923</v>
       </c>
       <c r="C5" t="n">
-        <v>758.5556074271813</v>
+        <v>420.5407103910806</v>
       </c>
       <c r="D5" t="n">
-        <v>758.5556074271813</v>
+        <v>420.5407103910806</v>
       </c>
       <c r="E5" t="n">
-        <v>758.5556074271813</v>
+        <v>420.5407103910806</v>
       </c>
       <c r="F5" t="n">
-        <v>382.7580005116047</v>
+        <v>44.74310347550207</v>
       </c>
       <c r="G5" t="n">
-        <v>367.7780675038164</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771367</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771367</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380357</v>
+        <v>57.64391735380423</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456869</v>
+        <v>220.1747338456884</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039959</v>
+        <v>474.0852112039985</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494135</v>
+        <v>773.2160860494173</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635718</v>
+        <v>1062.555213635723</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293125</v>
+        <v>1290.58230929313</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935876</v>
+        <v>1447.523776935883</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385683</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385683</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="S5" t="n">
-        <v>1381.364432045212</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="T5" t="n">
-        <v>1381.364432045212</v>
+        <v>1264.898900894979</v>
       </c>
       <c r="U5" t="n">
-        <v>1127.518124367593</v>
+        <v>1264.898900894979</v>
       </c>
       <c r="V5" t="n">
-        <v>1127.518124367593</v>
+        <v>1142.271882601606</v>
       </c>
       <c r="W5" t="n">
-        <v>1127.518124367593</v>
+        <v>789.5032273314923</v>
       </c>
       <c r="X5" t="n">
-        <v>1127.518124367593</v>
+        <v>789.5032273314923</v>
       </c>
       <c r="Y5" t="n">
-        <v>1127.518124367593</v>
+        <v>789.5032273314923</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>740.428201543025</v>
+        <v>360.6464760494598</v>
       </c>
       <c r="C6" t="n">
-        <v>565.975172261898</v>
+        <v>360.6464760494598</v>
       </c>
       <c r="D6" t="n">
-        <v>417.0407626006467</v>
+        <v>360.6464760494598</v>
       </c>
       <c r="E6" t="n">
-        <v>257.8033075951912</v>
+        <v>360.6464760494598</v>
       </c>
       <c r="F6" t="n">
-        <v>111.2687496220762</v>
+        <v>360.6464760494598</v>
       </c>
       <c r="G6" t="n">
-        <v>111.2687496220762</v>
+        <v>222.1710701731421</v>
       </c>
       <c r="H6" t="n">
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771367</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782818</v>
+        <v>52.67537262782866</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361406</v>
+        <v>52.67537262782866</v>
       </c>
       <c r="L6" t="n">
-        <v>218.4568186361406</v>
+        <v>336.9933817739652</v>
       </c>
       <c r="M6" t="n">
-        <v>586.7760531740972</v>
+        <v>705.3126163119236</v>
       </c>
       <c r="N6" t="n">
-        <v>955.0952877120538</v>
+        <v>848.0470181903974</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.36189956271</v>
+        <v>1156.361899562717</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.80870570668</v>
+        <v>1386.808705706687</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385683</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707606</v>
+        <v>1402.847410707613</v>
       </c>
       <c r="S6" t="n">
-        <v>1402.847410707606</v>
+        <v>1234.174372107482</v>
       </c>
       <c r="T6" t="n">
-        <v>1402.847410707606</v>
+        <v>1179.625720271757</v>
       </c>
       <c r="U6" t="n">
-        <v>1402.847410707606</v>
+        <v>1179.625720271757</v>
       </c>
       <c r="V6" t="n">
-        <v>1167.695302475863</v>
+        <v>944.4736120400146</v>
       </c>
       <c r="W6" t="n">
-        <v>1116.403837328047</v>
+        <v>944.4736120400146</v>
       </c>
       <c r="X6" t="n">
-        <v>1116.403837328047</v>
+        <v>736.6221118344818</v>
       </c>
       <c r="Y6" t="n">
-        <v>908.643538563093</v>
+        <v>528.8618130695279</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="C7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="D7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="E7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="F7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="G7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="H7" t="n">
-        <v>259.507069956685</v>
+        <v>153.2416316448451</v>
       </c>
       <c r="I7" t="n">
-        <v>108.9260165723449</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771367</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888124</v>
+        <v>32.09990175888174</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611206</v>
+        <v>90.61654790611298</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236679</v>
+        <v>162.7032697236693</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400008</v>
+        <v>238.5105468400027</v>
       </c>
       <c r="O7" t="n">
-        <v>292.514541505793</v>
+        <v>292.5145415057953</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918657</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918657</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918657</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="S7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="T7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="U7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="V7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="W7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="X7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
       <c r="Y7" t="n">
-        <v>259.507069956685</v>
+        <v>315.2036061918683</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1637.643464250441</v>
+        <v>962.91501986716</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>962.91501986716</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
         <v>882.8926947117852</v>
@@ -4802,52 +4802,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2011.109222511521</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X8" t="n">
-        <v>1637.643464250441</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1637.643464250441</v>
+        <v>1349.514859931282</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572643</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>403.6754589963297</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4963,49 +4963,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245966</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245966</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245966</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245966</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>224.423390987636</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>224.423390987636</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.423390987636</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>167.888774669033</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>316.9584588710924</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>563.7235867775557</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170016</v>
       </c>
       <c r="N12" t="n">
-        <v>1651.324348736746</v>
+        <v>1661.954360834048</v>
       </c>
       <c r="O12" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5154,7 +5154,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W12" t="n">
         <v>1571.258395043133</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705744</v>
+        <v>675.2581065529678</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>675.2581065529678</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>675.2581065529678</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705747</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705747</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="U13" t="n">
-        <v>1157.775607842362</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="V13" t="n">
-        <v>1157.775607842362</v>
+        <v>1367.116320563698</v>
       </c>
       <c r="W13" t="n">
-        <v>1157.775607842362</v>
+        <v>1077.699150526738</v>
       </c>
       <c r="X13" t="n">
-        <v>929.7860569443443</v>
+        <v>1077.699150526738</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.9934778008142</v>
+        <v>856.9065713832075</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5315,7 +5315,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>485.404702608941</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>732.169830515405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.0432218861031</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>395.0599571744619</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>247.1468635920688</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.1468635920688</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.1468635920688</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1104.901435896834</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1104.901435896834</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>815.4842658598729</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>815.4842658598729</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.6916867163428</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,16 +5501,16 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5537,22 +5537,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
@@ -5598,19 +5598,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1818.397748747283</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>530.7956248556235</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>530.7956248556235</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>380.6789854432877</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>933.2366688293934</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>933.2366688293934</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>933.2366688293934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>712.4440896858632</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155896</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028647</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3777.447355009192</v>
+        <v>757.4105722479408</v>
       </c>
       <c r="C22" t="n">
-        <v>3777.447355009192</v>
+        <v>588.4743893200339</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.330715596856</v>
+        <v>438.3577499076981</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596856</v>
+        <v>290.444656325305</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596856</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365625</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>4287.657104189682</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>4287.657104189682</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W22" t="n">
-        <v>3998.239934152722</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X22" t="n">
-        <v>3998.239934152722</v>
+        <v>1159.851616221711</v>
       </c>
       <c r="Y22" t="n">
-        <v>3777.447355009192</v>
+        <v>939.0590370781805</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,67 +5972,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.773754790662</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1912.313820009359</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2432.614441745106</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.4221461351941</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="C25" t="n">
-        <v>563.4221461351941</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>3877.507636572667</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>3729.594542990274</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>3582.704595492364</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>3582.704595492364</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U25" t="n">
-        <v>1080.828867070172</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V25" t="n">
-        <v>1080.828867070172</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W25" t="n">
-        <v>791.4116970332115</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X25" t="n">
-        <v>563.4221461351941</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.4221461351941</v>
+        <v>4027.624275985003</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6230,13 +6230,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6315,10 +6315,10 @@
         <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975555</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4186.289902337209</v>
+        <v>4094.598000559211</v>
       </c>
       <c r="C28" t="n">
-        <v>4186.289902337209</v>
+        <v>3925.661817631304</v>
       </c>
       <c r="D28" t="n">
-        <v>4036.173262924874</v>
+        <v>3925.661817631304</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924874</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
         <v>3459.155393916675</v>
@@ -6409,25 +6409,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>4767.165545811253</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>4543.380130600758</v>
       </c>
       <c r="U28" t="n">
-        <v>4475.70707237417</v>
+        <v>4543.380130600758</v>
       </c>
       <c r="V28" t="n">
-        <v>4475.70707237417</v>
+        <v>4543.380130600758</v>
       </c>
       <c r="W28" t="n">
-        <v>4186.289902337209</v>
+        <v>4543.380130600758</v>
       </c>
       <c r="X28" t="n">
-        <v>4186.289902337209</v>
+        <v>4315.390579702741</v>
       </c>
       <c r="Y28" t="n">
-        <v>4186.289902337209</v>
+        <v>4094.598000559211</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1346.676219880508</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>244.4965182510048</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C31" t="n">
-        <v>244.4965182510048</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D31" t="n">
-        <v>244.4965182510048</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>244.4965182510048</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>244.4965182510048</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>244.4965182510048</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>874.927113122792</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>874.927113122792</v>
+        <v>1311.867897449337</v>
       </c>
       <c r="W31" t="n">
-        <v>874.927113122792</v>
+        <v>1022.450727412377</v>
       </c>
       <c r="X31" t="n">
-        <v>646.9375622247746</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="Y31" t="n">
-        <v>426.1449830812445</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6777,16 +6777,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864554</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N33" t="n">
         <v>1843.901542059518</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>395.5481934947357</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5481934947357</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D34" t="n">
-        <v>395.5481934947357</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6883,25 +6883,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>786.0822064765186</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="Y34" t="n">
-        <v>565.2896273329885</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7023,19 +7023,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>1912.313820009359</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>525.6009593486384</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C37" t="n">
-        <v>356.6647764207315</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7099,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1290.495196735016</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1035.810708529129</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>746.3935384921685</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>746.3935384921685</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>525.6009593486384</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7178,28 +7178,28 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
@@ -7263,10 +7263,10 @@
         <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.977845975555</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4391.604587469457</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>4222.66840454155</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>4072.551765129214</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4646.289075675344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4391.604587469457</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>4391.604587469457</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4391.604587469457</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>4391.604587469457</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>545.6648329070714</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="C43" t="n">
-        <v>545.6648329070714</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="D43" t="n">
-        <v>395.5481934947356</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>1283.86413298558</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W43" t="n">
-        <v>994.4469629486189</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X43" t="n">
-        <v>766.4574120506015</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y43" t="n">
-        <v>545.6648329070714</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="44">
@@ -7643,7 +7643,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7655,31 +7655,31 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265285</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.438140992646</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="C46" t="n">
-        <v>542.438140992646</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="D46" t="n">
-        <v>542.438140992646</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="E46" t="n">
-        <v>394.5250474102529</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U46" t="n">
-        <v>898.7925182488384</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V46" t="n">
-        <v>898.7925182488384</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W46" t="n">
-        <v>609.3753482118777</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="X46" t="n">
-        <v>609.3753482118777</v>
+        <v>3959.397188879153</v>
       </c>
       <c r="Y46" t="n">
-        <v>609.3753482118777</v>
+        <v>3959.397188879153</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>326.2905502704982</v>
       </c>
       <c r="M3" t="n">
-        <v>392.5864374864155</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
         <v>387.9064735273546</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357555</v>
       </c>
       <c r="L6" t="n">
-        <v>83.65043707503928</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835727</v>
+        <v>450.1033532835737</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470452</v>
+        <v>209.7518136142332</v>
       </c>
       <c r="O6" t="n">
-        <v>285.7327541033333</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516234</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.47535963978774</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>18.73797368291287</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>199.6230805871087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,13 +9015,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,22 +9246,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>308.1251096272034</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>85.30006332127817</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.53204524669985</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9963,13 +9963,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>285.1031356539328</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>176.717654749845</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>73.53204524669985</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>308.1251096272032</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>202.5230052237941</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>285.1031356539328</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119852</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,25 +11139,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>414.5002179180839</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>272.8719470256804</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,22 +23464,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>58.47244871398436</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>231.6200452333613</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0.4833539570710172</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,19 +23707,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>6.127018487911926</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>32.30025606677491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6193272699399</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>50.28377172439423</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>26.60011880760399</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,19 +24415,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>93.87838400411351</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>105.1686730525941</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>126.488887823245</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>3.107195844724373</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>66.95975394634834</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11.78796068206702</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>103.4944802345777</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368832</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,7 +25366,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>189.8648417177127</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,22 +25597,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>73.81751003301858</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25789,19 +25789,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>133.1420986615188</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>39.23602712722837</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113.5641450348979</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,13 +26029,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>158.1648391542444</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>810491.8631086949</v>
+        <v>810491.863108695</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>812611.0943362731</v>
+        <v>812611.094336273</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766177.3883073514</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766177.3883073513</v>
+        <v>766177.3883073512</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>766177.3883073514</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>766177.3883073515</v>
+        <v>766177.3883073514</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766177.3883073514</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766177.3883073514</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766177.3883073512</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="13">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380333</v>
@@ -26323,37 +26323,37 @@
         <v>645197.9485672197</v>
       </c>
       <c r="F2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="H2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="G2" t="n">
-        <v>645197.9485672191</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672195</v>
-      </c>
       <c r="I2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="K2" t="n">
         <v>645197.9485672193</v>
       </c>
-      <c r="J2" t="n">
-        <v>645197.9485672198</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672194</v>
-      </c>
       <c r="L2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="M2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672187</v>
+        <v>645197.9485672191</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703823</v>
+        <v>106137.1517703845</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.942425212</v>
+        <v>316711.9424252103</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.036476895</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.258084694200079e-09</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.850638409455616e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113904</v>
+        <v>72254.69487113913</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313381</v>
+        <v>24677.2460931343</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817176</v>
+        <v>76496.15793817127</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318756.6528900198</v>
+        <v>316926.9684369122</v>
       </c>
       <c r="C4" t="n">
-        <v>288740.772131228</v>
+        <v>286886.6599484429</v>
       </c>
       <c r="D4" t="n">
-        <v>194137.7109079703</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316569</v>
       </c>
       <c r="F4" t="n">
-        <v>45115.60258318321</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
-        <v>45115.60258318322</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="H4" t="n">
-        <v>45115.60258318321</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="I4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="J4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
-        <v>45115.6025831833</v>
+        <v>43561.42148316551</v>
       </c>
       <c r="L4" t="n">
-        <v>45115.60258318328</v>
+        <v>43561.42148316555</v>
       </c>
       <c r="M4" t="n">
-        <v>45115.60258318329</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="N4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316551</v>
       </c>
       <c r="O4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316553</v>
       </c>
       <c r="P4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316556</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485704</v>
+        <v>58810.42201485719</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181128.0862844208</v>
+        <v>182957.7707375282</v>
       </c>
       <c r="C6" t="n">
-        <v>223671.1142215669</v>
+        <v>225525.2264043493</v>
       </c>
       <c r="D6" t="n">
-        <v>83650.72874144153</v>
+        <v>85581.84325698379</v>
       </c>
       <c r="E6" t="n">
-        <v>-17065.01644157685</v>
+        <v>-15510.83534155761</v>
       </c>
       <c r="F6" t="n">
-        <v>508095.0200353195</v>
+        <v>509649.201135336</v>
       </c>
       <c r="G6" t="n">
-        <v>508095.0200353193</v>
+        <v>509649.2011353374</v>
       </c>
       <c r="H6" t="n">
-        <v>508095.0200353197</v>
+        <v>509649.2011353371</v>
       </c>
       <c r="I6" t="n">
-        <v>508095.0200353195</v>
+        <v>509649.2011353375</v>
       </c>
       <c r="J6" t="n">
-        <v>435840.3251641809</v>
+        <v>437394.5062641979</v>
       </c>
       <c r="K6" t="n">
-        <v>483417.7739421857</v>
+        <v>484971.955042203</v>
       </c>
       <c r="L6" t="n">
-        <v>431598.8620971477</v>
+        <v>433153.0431971662</v>
       </c>
       <c r="M6" t="n">
-        <v>373294.0048014823</v>
+        <v>374848.1859015001</v>
       </c>
       <c r="N6" t="n">
-        <v>508095.0200353196</v>
+        <v>509649.2011353372</v>
       </c>
       <c r="O6" t="n">
-        <v>508095.0200353196</v>
+        <v>509649.2011353374</v>
       </c>
       <c r="P6" t="n">
-        <v>508095.0200353189</v>
+        <v>509649.2011353369</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593879</v>
+        <v>117.5602045593896</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26790,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464208</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.784641482917479e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026259</v>
+        <v>82.53894384026424</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576983</v>
+        <v>260.1834596576971</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406535</v>
+        <v>95.88311714406723</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081348</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990177</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023553</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406535</v>
+        <v>95.88311714406746</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081348</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406535</v>
+        <v>95.88311714406723</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081348</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>139.005434824964</v>
+        <v>312.9485729435642</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194537</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>112.8783571900898</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>23.86183685924608</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27512,19 +27512,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>163.4847355532087</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27561,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.3240550344251</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>217.9072580679963</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.8364148952906</v>
+        <v>34.83641489528873</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280911</v>
+        <v>192.2558301280909</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385219</v>
+        <v>120.1819171385215</v>
       </c>
       <c r="S5" t="n">
-        <v>92.52445921386368</v>
+        <v>198.2506096409304</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>206.3515103596962</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>145.1423385850951</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>200.9164326645817</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>26.83156628513663</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>78.3712176435847</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322681</v>
+        <v>68.41045236322657</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255181</v>
+        <v>167.761378725518</v>
       </c>
       <c r="S7" t="n">
-        <v>165.1825531946295</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882338</v>
+        <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>275.4609397168619</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>137.733986761726</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.05637510633849</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>112.2111604889787</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28618,19 +28618,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="I29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>-6.002665031701325e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29746,19 +29746,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29986,25 +29986,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,10 +30034,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30046,13 +30046,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
     </row>
     <row r="42">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31054,13 +31054,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
         <v>23.72136057081218</v>
@@ -31069,16 +31069,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
         <v>19.08658709192331</v>
@@ -31142,25 +31142,25 @@
         <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,40 +31197,40 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
         <v>1.100586177025627</v>
@@ -31239,7 +31239,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246747</v>
+        <v>0.4726038374246814</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025452</v>
+        <v>4.840054050025519</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231479</v>
+        <v>18.22005944231504</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662252</v>
+        <v>40.11165994662309</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480902</v>
+        <v>60.11698038480986</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439441</v>
+        <v>74.58043007439547</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819548</v>
+        <v>82.98509856819663</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127834</v>
+        <v>84.32788422127952</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288672</v>
+        <v>79.62842981288784</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646506</v>
+        <v>67.96102257646601</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869388</v>
+        <v>51.03589764869459</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262775</v>
+        <v>29.68720080262817</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531479</v>
+        <v>10.76945994531494</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326515</v>
+        <v>2.068823298326544</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397397</v>
+        <v>0.0378083069939745</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.252865345656042</v>
+        <v>0.2528653456560455</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941248</v>
+        <v>2.442146890941282</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596182</v>
+        <v>8.706109488596304</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182807</v>
+        <v>23.89022987182841</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078289</v>
+        <v>40.83220803078346</v>
       </c>
       <c r="L6" t="n">
-        <v>54.9039427048349</v>
+        <v>54.90394270483568</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486641</v>
+        <v>64.0703114848673</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270892</v>
+        <v>65.76606198270984</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106714</v>
+        <v>60.16309827106798</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496823</v>
+        <v>48.2861904349689</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128704</v>
+        <v>32.2780395612875</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134619</v>
+        <v>15.69983260134641</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707618</v>
+        <v>4.696862889707684</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359221</v>
+        <v>1.019224792359236</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368698</v>
+        <v>0.01663587800368721</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005356</v>
+        <v>0.2119938115005386</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886581</v>
+        <v>1.884817705886608</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761563</v>
+        <v>6.375232076761653</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308787</v>
+        <v>14.98796247308807</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342586</v>
+        <v>24.6298264634262</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072509</v>
+        <v>31.51769812072553</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094304</v>
+        <v>33.23099356094351</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898653</v>
+        <v>32.44083480898698</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736662</v>
+        <v>29.96436164736704</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275567</v>
+        <v>25.63968789275603</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846758</v>
+        <v>17.75159088846782</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651351</v>
+        <v>9.532012651651486</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513878</v>
+        <v>3.69447396951393</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477427</v>
+        <v>0.9057917400477554</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912014</v>
+        <v>0.0115632988091203</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>204.0920904142118</v>
       </c>
       <c r="M3" t="n">
-        <v>269.5389906563205</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>276.1565137023555</v>
@@ -34796,7 +34796,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34863,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
         <v>53.79631798062265</v>
@@ -34872,7 +34872,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201001</v>
+        <v>28.16237059201057</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109932</v>
+        <v>164.1725419109941</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548576</v>
+        <v>256.4752296548587</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337552</v>
+        <v>302.1523988337564</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366716</v>
+        <v>292.2617450366728</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539453</v>
+        <v>230.3303996539465</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926781</v>
+        <v>158.5267349926791</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414907</v>
+        <v>41.04519843414979</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557022</v>
+        <v>23.14363854557055</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690025</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>287.1899082284207</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464208</v>
+        <v>372.0396308464227</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464208</v>
+        <v>144.1761635136098</v>
       </c>
       <c r="O6" t="n">
-        <v>203.299607929956</v>
+        <v>311.429173103353</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605752</v>
+        <v>232.7745516605758</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111146</v>
+        <v>102.3735532111151</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543005</v>
+        <v>2.36033463754335</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104123</v>
+        <v>59.10772338104167</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278362</v>
+        <v>72.8148705227841</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821512</v>
+        <v>76.57300718821557</v>
       </c>
       <c r="O7" t="n">
-        <v>54.5494895614063</v>
+        <v>54.54948956140672</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764916</v>
+        <v>22.91824715764952</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727917</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>71.38553859469411</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879387</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004653</v>
       </c>
       <c r="N12" t="n">
-        <v>351.9325470809258</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178369</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>350.198519175048</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35735,13 +35735,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>515.2185245587281</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36212,7 +36212,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>367.6637655623863</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>322.7897502027242</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>618.2977090519457</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>509.9122281478579</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>322.7897502027242</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>641.3196830252161</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>409.6164201553188</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37631,13 +37631,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>618.2977090519457</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37786,10 +37786,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37859,25 +37859,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>724.9245949685502</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>555.2356492667885</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2821911.691206188</v>
+        <v>2903595.733744486</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702197</v>
+        <v>2346514.735702196</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8988586.153475815</v>
+        <v>8988586.153475817</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>102.2133755837553</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>157.3961002323935</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113.4063515544932</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268739</v>
@@ -786,22 +788,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>195.1009395542608</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6773952840985035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>182.8473337536611</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464227</v>
+        <v>372.0396308464213</v>
       </c>
       <c r="G5" t="n">
         <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>121.4007481104387</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281877</v>
+        <v>80.69052336281887</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129672</v>
+        <v>84.45800155129689</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>54.00316531736726</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>82.0827417135054</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>160.342354801553</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.24367656536</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>62.26390729945268</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>79.22210190382104</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>113.1400945265399</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>55.09864177007217</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.40414780104443</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>24.09543807136859</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>20.51759809046666</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.4304744104651</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>16.65321666590875</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417119</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>69.27142932050967</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>24.80172075299137</v>
+        <v>115.0655780342136</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>68.25603137269533</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>122.3137095599321</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>92.75213693100919</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>43.92677689897154</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>20.36041793607752</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>185.1778893774797</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>68.41712019064346</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>122.2151751544595</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>57.64843562452403</v>
+        <v>103.6823614795158</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>70.02468195575962</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>76.2797837049395</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>33.35146980185877</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,13 +4036,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>18.69216212787784</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>67.54481623479278</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>683.2303018926191</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="C2" t="n">
-        <v>683.2303018926191</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2303018926191</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="E2" t="n">
-        <v>683.2303018926191</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="F2" t="n">
-        <v>404.2843284558963</v>
+        <v>196.3935804494339</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329112</v>
+        <v>181.078480926889</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618844</v>
+        <v>181.078480926889</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
         <v>989.7620250901066</v>
@@ -4355,25 +4357,25 @@
         <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293418</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>962.1762753293418</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U2" t="n">
-        <v>962.1762753293418</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="V2" t="n">
-        <v>962.1762753293418</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="W2" t="n">
-        <v>962.1762753293418</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="X2" t="n">
-        <v>962.1762753293418</v>
+        <v>475.3395538861566</v>
       </c>
       <c r="Y2" t="n">
-        <v>683.2303018926191</v>
+        <v>475.3395538861566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>336.9585371372239</v>
+        <v>269.0098520841565</v>
       </c>
       <c r="C3" t="n">
-        <v>336.9585371372239</v>
+        <v>269.0098520841565</v>
       </c>
       <c r="D3" t="n">
-        <v>336.9585371372239</v>
+        <v>269.0098520841565</v>
       </c>
       <c r="E3" t="n">
-        <v>336.9585371372239</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9585371372239</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
         <v>109.772397078701</v>
@@ -4413,19 +4415,19 @@
         <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>367.8501726635177</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8501726635177</v>
+        <v>685.3494183114809</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288496</v>
+        <v>685.3494183114809</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121334</v>
+        <v>951.8462318947647</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4436,25 @@
         <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940352</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940352</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="U3" t="n">
-        <v>779.9621455744993</v>
+        <v>437.2251891042245</v>
       </c>
       <c r="V3" t="n">
-        <v>544.8100373427567</v>
+        <v>437.2251891042245</v>
       </c>
       <c r="W3" t="n">
-        <v>544.8100373427567</v>
+        <v>437.2251891042245</v>
       </c>
       <c r="X3" t="n">
-        <v>336.9585371372239</v>
+        <v>437.2251891042245</v>
       </c>
       <c r="Y3" t="n">
-        <v>336.9585371372239</v>
+        <v>437.2251891042245</v>
       </c>
     </row>
     <row r="4">
@@ -4510,28 +4512,28 @@
         <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>789.5032273314923</v>
+        <v>943.2498839460313</v>
       </c>
       <c r="C5" t="n">
-        <v>420.5407103910806</v>
+        <v>943.2498839460313</v>
       </c>
       <c r="D5" t="n">
-        <v>420.5407103910806</v>
+        <v>943.2498839460313</v>
       </c>
       <c r="E5" t="n">
-        <v>420.5407103910806</v>
+        <v>758.5556074271817</v>
       </c>
       <c r="F5" t="n">
-        <v>44.74310347550207</v>
+        <v>382.7580005116047</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771382</v>
+        <v>367.7780675038164</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771382</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771382</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380423</v>
+        <v>57.64391735380377</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456884</v>
+        <v>220.1747338456873</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039985</v>
+        <v>474.0852112039966</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494173</v>
+        <v>773.2160860494146</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635723</v>
+        <v>1062.55521363572</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.58230929313</v>
+        <v>1290.582309293126</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935883</v>
+        <v>1447.523776935877</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385691</v>
+        <v>1366.762647488188</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385691</v>
+        <v>1166.509506436743</v>
       </c>
       <c r="T5" t="n">
-        <v>1264.898900894979</v>
+        <v>943.2498839460313</v>
       </c>
       <c r="U5" t="n">
-        <v>1264.898900894979</v>
+        <v>943.2498839460313</v>
       </c>
       <c r="V5" t="n">
-        <v>1142.271882601606</v>
+        <v>943.2498839460313</v>
       </c>
       <c r="W5" t="n">
-        <v>789.5032273314923</v>
+        <v>943.2498839460313</v>
       </c>
       <c r="X5" t="n">
-        <v>789.5032273314923</v>
+        <v>943.2498839460313</v>
       </c>
       <c r="Y5" t="n">
-        <v>789.5032273314923</v>
+        <v>943.2498839460313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360.6464760494598</v>
+        <v>668.8183407161666</v>
       </c>
       <c r="C6" t="n">
-        <v>360.6464760494598</v>
+        <v>668.8183407161666</v>
       </c>
       <c r="D6" t="n">
-        <v>360.6464760494598</v>
+        <v>519.8839310549154</v>
       </c>
       <c r="E6" t="n">
-        <v>360.6464760494598</v>
+        <v>360.6464760494599</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494598</v>
+        <v>360.6464760494599</v>
       </c>
       <c r="G6" t="n">
         <v>222.1710701731421</v>
@@ -4641,55 +4643,55 @@
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771382</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782866</v>
+        <v>52.6753726278283</v>
       </c>
       <c r="K6" t="n">
-        <v>52.67537262782866</v>
+        <v>195.4097745063002</v>
       </c>
       <c r="L6" t="n">
-        <v>336.9933817739652</v>
+        <v>479.7277836524361</v>
       </c>
       <c r="M6" t="n">
-        <v>705.3126163119236</v>
+        <v>479.7277836524361</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903974</v>
+        <v>848.0470181903931</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562717</v>
+        <v>1156.361899562712</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706687</v>
+        <v>1386.808705706682</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707613</v>
+        <v>1402.847410707607</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107482</v>
+        <v>1234.174372107476</v>
       </c>
       <c r="T6" t="n">
-        <v>1179.625720271757</v>
+        <v>1234.174372107476</v>
       </c>
       <c r="U6" t="n">
-        <v>1179.625720271757</v>
+        <v>1005.96755776104</v>
       </c>
       <c r="V6" t="n">
-        <v>944.4736120400146</v>
+        <v>1005.96755776104</v>
       </c>
       <c r="W6" t="n">
-        <v>944.4736120400146</v>
+        <v>751.7302010328387</v>
       </c>
       <c r="X6" t="n">
-        <v>736.6221118344818</v>
+        <v>668.8183407161666</v>
       </c>
       <c r="Y6" t="n">
-        <v>528.8618130695279</v>
+        <v>668.8183407161666</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918683</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="C7" t="n">
-        <v>315.2036061918683</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="D7" t="n">
-        <v>315.2036061918683</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="E7" t="n">
-        <v>315.2036061918683</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="F7" t="n">
-        <v>315.2036061918683</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="G7" t="n">
-        <v>315.2036061918683</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="H7" t="n">
-        <v>153.2416316448451</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771382</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771382</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888174</v>
+        <v>32.09990175888135</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611298</v>
+        <v>90.61654790611226</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236693</v>
+        <v>162.7032697236681</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400027</v>
+        <v>238.5105468400012</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057953</v>
+        <v>292.5145415057935</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918683</v>
+        <v>315.2036061918663</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918683</v>
+        <v>315.2036061918663</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918683</v>
+        <v>315.2036061918663</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918683</v>
+        <v>92.65600612372651</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918683</v>
+        <v>92.65600612372651</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918683</v>
+        <v>92.65600612372651</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918683</v>
+        <v>92.65600612372651</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918683</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918683</v>
+        <v>29.7631704677137</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918683</v>
+        <v>29.7631704677137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.91501986716</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>962.91501986716</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4838,16 +4840,16 @@
         <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.654191907093</v>
+        <v>2309.202810756597</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.514859931282</v>
+        <v>1919.063478780785</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4890,10 +4892,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4905,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.5654064942401</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>550.5654064942401</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>550.5654064942401</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>550.5654064942401</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>403.6754589963297</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942401</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5018,52 +5020,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525784</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714514</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201102002</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047447</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316297</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G12" t="n">
-        <v>221.345128735815</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675026</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J12" t="n">
-        <v>167.888774669033</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K12" t="n">
-        <v>316.9584588710924</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775557</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170016</v>
+        <v>3708.096708145162</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834048</v>
+        <v>4037.959335809195</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136707</v>
+        <v>4317.499401027892</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>4763.091658459769</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771335</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.2581065529678</v>
+        <v>533.6251570374466</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2581065529678</v>
+        <v>533.6251570374466</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529678</v>
+        <v>383.5085176251108</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705747</v>
+        <v>383.5085176251108</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705747</v>
+        <v>383.5085176251108</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903952</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383385</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119725</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119725</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119725</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119725</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>1367.116320563698</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W13" t="n">
-        <v>1077.699150526738</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X13" t="n">
-        <v>1077.699150526738</v>
+        <v>936.0662010112164</v>
       </c>
       <c r="Y13" t="n">
-        <v>856.9065713832075</v>
+        <v>715.2736218676863</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,67 +5263,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.1765965867977</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="C16" t="n">
-        <v>545.1765965867977</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D16" t="n">
-        <v>395.0599571744619</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>247.1468635920688</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>247.1468635920688</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>247.1468635920688</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1081.891097357621</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>792.4739273206599</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>564.4843764226425</v>
       </c>
       <c r="Y16" t="n">
-        <v>726.8250614170374</v>
+        <v>564.4843764226425</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,16 +5518,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,7 +5542,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5555,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>4465.121280248433</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1428.945129830115</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1428.945129830115</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1428.945129830115</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1139.816491043673</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>885.1320028377861</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>595.7148328008255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5752,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>3033.644633014775</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011339</v>
+        <v>3340.964766294737</v>
       </c>
       <c r="N21" t="n">
-        <v>1296.555866665167</v>
+        <v>3670.827393958769</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>757.4105722479408</v>
+        <v>662.0910440466404</v>
       </c>
       <c r="C22" t="n">
-        <v>588.4743893200339</v>
+        <v>493.1548611187335</v>
       </c>
       <c r="D22" t="n">
-        <v>438.3577499076981</v>
+        <v>493.1548611187335</v>
       </c>
       <c r="E22" t="n">
-        <v>290.444656325305</v>
+        <v>493.1548611187335</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5944,16 +5946,16 @@
         <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>1387.841167119728</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X22" t="n">
-        <v>1159.851616221711</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="Y22" t="n">
-        <v>939.0590370781805</v>
+        <v>843.7395088768801</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,28 +5974,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6029,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>732.169830515405</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.489963795367</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4027.624275985003</v>
+        <v>3846.392841244236</v>
       </c>
       <c r="C25" t="n">
-        <v>4027.624275985003</v>
+        <v>3777.447355009191</v>
       </c>
       <c r="D25" t="n">
-        <v>3877.507636572667</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="E25" t="n">
-        <v>3729.594542990274</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="F25" t="n">
-        <v>3582.704595492364</v>
+        <v>3627.330715596855</v>
       </c>
       <c r="G25" t="n">
-        <v>3582.704595492364</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
         <v>4411.546387431056</v>
@@ -6169,28 +6171,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U25" t="n">
-        <v>4571.72593422785</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V25" t="n">
-        <v>4317.041446021964</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="W25" t="n">
-        <v>4027.624275985003</v>
+        <v>4295.174971285784</v>
       </c>
       <c r="X25" t="n">
-        <v>4027.624275985003</v>
+        <v>4067.185420387766</v>
       </c>
       <c r="Y25" t="n">
-        <v>4027.624275985003</v>
+        <v>3846.392841244236</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6208,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.27469227828</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1925.814757496977</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4094.598000559211</v>
+        <v>3756.161980826922</v>
       </c>
       <c r="C28" t="n">
-        <v>3925.661817631304</v>
+        <v>3756.161980826922</v>
       </c>
       <c r="D28" t="n">
-        <v>3925.661817631304</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="E28" t="n">
-        <v>3777.748724048911</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048911</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N28" t="n">
         <v>4411.546387431056</v>
@@ -6406,28 +6408,28 @@
         <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S28" t="n">
-        <v>4767.165545811253</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T28" t="n">
-        <v>4543.380130600758</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U28" t="n">
-        <v>4543.380130600758</v>
+        <v>4236.865415579181</v>
       </c>
       <c r="V28" t="n">
-        <v>4543.380130600758</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="W28" t="n">
-        <v>4543.380130600758</v>
+        <v>3982.180927373294</v>
       </c>
       <c r="X28" t="n">
-        <v>4315.390579702741</v>
+        <v>3937.810445657161</v>
       </c>
       <c r="Y28" t="n">
-        <v>4094.598000559211</v>
+        <v>3937.810445657161</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6488,25 +6490,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>498.9056400965593</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>745.6707680030233</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>392.0201325405893</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C31" t="n">
-        <v>392.0201325405893</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6649,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1311.867897449337</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>1022.450727412377</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X31" t="n">
-        <v>794.4611765143592</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y31" t="n">
-        <v>573.668597370829</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6725,25 +6727,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6785,19 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>732.169830515405</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>973.0255547109413</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="C34" t="n">
-        <v>804.0893717830344</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="D34" t="n">
-        <v>653.9727323706986</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883055</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>4256.965842068405</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>4256.965842068405</v>
       </c>
       <c r="X34" t="n">
-        <v>1375.466598684711</v>
+        <v>4256.965842068405</v>
       </c>
       <c r="Y34" t="n">
-        <v>1154.674019541181</v>
+        <v>4036.173262924875</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,13 +6949,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452864</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>2896.654173359328</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>3203.974306639289</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>3963.250971505326</v>
       </c>
       <c r="O36" t="n">
-        <v>1925.814757496977</v>
+        <v>4242.791036724023</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4763.09165845977</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>324.3840174432676</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C37" t="n">
-        <v>155.4478345153607</v>
+        <v>496.7497906007063</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028587</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.0324822735073</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,10 +7165,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,22 +7177,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7199,25 +7201,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.27469227828</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O39" t="n">
-        <v>1925.814757496977</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>3845.975811154764</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>3775.243809179249</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>3775.243809179249</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>3627.330715596856</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>4027.624275985004</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,28 +7399,28 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619129</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>181.9314425141225</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>592.8217113586352</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.9054447954967</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>130.9054447954967</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="D43" t="n">
-        <v>130.9054447954967</v>
+        <v>174.2673780309318</v>
       </c>
       <c r="E43" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028587</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954967</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>130.9054447954967</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.9054447954967</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7642,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,22 +7651,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
@@ -7685,7 +7687,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7725,22 +7727,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>498.9056400965593</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>745.6707680030233</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3777.748724048913</v>
+        <v>3796.328326855533</v>
       </c>
       <c r="C46" t="n">
-        <v>3777.748724048913</v>
+        <v>3796.328326855533</v>
       </c>
       <c r="D46" t="n">
-        <v>3777.748724048913</v>
+        <v>3646.211687443197</v>
       </c>
       <c r="E46" t="n">
-        <v>3777.748724048913</v>
+        <v>3646.211687443197</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048913</v>
+        <v>3646.211687443197</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368733</v>
+        <v>3478.036365763018</v>
       </c>
       <c r="H46" t="n">
         <v>3459.155393916677</v>
@@ -7828,28 +7830,28 @@
         <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014293</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.725934227851</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="V46" t="n">
-        <v>4317.041446021964</v>
+        <v>4205.96634258379</v>
       </c>
       <c r="W46" t="n">
-        <v>4027.624275985004</v>
+        <v>4205.96634258379</v>
       </c>
       <c r="X46" t="n">
-        <v>3959.397188879153</v>
+        <v>3977.976791685773</v>
       </c>
       <c r="Y46" t="n">
-        <v>3959.397188879153</v>
+        <v>3977.976791685773</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>326.2905502704982</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>194.2018111649844</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357555</v>
+        <v>241.185394457184</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835737</v>
+        <v>78.06372243715171</v>
       </c>
       <c r="N6" t="n">
-        <v>209.7518136142332</v>
+        <v>437.6152809470455</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987299066</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>29.47535963978774</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>242.999774393604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445238</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>295.3773510571275</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>104.6241510367942</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>234.4116509503166</v>
+        <v>96.03744927814608</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>73.53204524669985</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P27" t="n">
-        <v>199.623080587109</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>87.16935584025379</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10431,25 +10433,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>73.53204524669985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>444.4889386861661</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>433.7515527292966</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>199.623080587109</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>199.623080587109</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>43.65987261462531</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>87.16935584025379</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>142.398130392009</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>231.6200452333613</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4833539570710172</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,10 +23709,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>235.4844266579192</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>40.69292308328312</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>120.6193272699399</v>
+        <v>30.35546998871764</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>98.9907897259325</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>26.60011880760399</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>105.1686730525941</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>181.7828784900656</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>159.4715622458598</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>66.95975394634834</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>183.7205231331845</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>103.4944802345777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>90.96703739368832</v>
+        <v>44.93311153869652</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25366,7 +25368,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>97.22213914286822</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>70.15417894162967</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>133.1420986615188</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.2216662396583</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>158.1648391542444</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>810491.863108695</v>
+        <v>810491.8631086949</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766177.3883073513</v>
+        <v>766177.3883073515</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766177.3883073512</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>766177.3883073513</v>
+        <v>766177.3883073512</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>766177.3883073514</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766177.3883073513</v>
+        <v>766177.3883073514</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766177.3883073513</v>
+        <v>766177.3883073512</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766177.3883073513</v>
+        <v>766177.3883073514</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766177.3883073513</v>
+        <v>766177.3883073512</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766177.3883073512</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="H2" t="n">
+        <v>645197.948567219</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="J2" t="n">
         <v>645197.9485672193</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672192</v>
       </c>
       <c r="K2" t="n">
         <v>645197.9485672193</v>
@@ -26344,16 +26346,16 @@
         <v>645197.9485672197</v>
       </c>
       <c r="M2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="N2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="N2" t="n">
-        <v>645197.9485672193</v>
-      </c>
       <c r="O2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672192</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26368,16 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703845</v>
+        <v>106137.1517703828</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252103</v>
+        <v>316711.9424252118</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476895</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.258084694200079e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113913</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.2460931343</v>
+        <v>24677.24609313398</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817127</v>
+        <v>76496.15793817163</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316926.9684369122</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484429</v>
+        <v>286886.6599484434</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316569</v>
+        <v>43561.42148316554</v>
       </c>
       <c r="F4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="G4" t="n">
-        <v>43561.42148316553</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
         <v>43561.42148316555</v>
       </c>
       <c r="I4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="J4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
-        <v>43561.42148316551</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="L4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="M4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="N4" t="n">
-        <v>43561.42148316551</v>
+        <v>43561.42148316558</v>
       </c>
       <c r="O4" t="n">
-        <v>43561.42148316553</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="P4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316558</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26472,28 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485719</v>
+        <v>58810.42201485707</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26522,46 +26524,46 @@
         <v>182957.7707375282</v>
       </c>
       <c r="C6" t="n">
-        <v>225525.2264043493</v>
+        <v>225525.2264043509</v>
       </c>
       <c r="D6" t="n">
-        <v>85581.84325698379</v>
+        <v>85581.84325698222</v>
       </c>
       <c r="E6" t="n">
-        <v>-15510.83534155761</v>
+        <v>-15510.83534155889</v>
       </c>
       <c r="F6" t="n">
-        <v>509649.201135336</v>
+        <v>509649.2011353371</v>
       </c>
       <c r="G6" t="n">
         <v>509649.2011353374</v>
       </c>
       <c r="H6" t="n">
-        <v>509649.2011353371</v>
+        <v>509649.2011353368</v>
       </c>
       <c r="I6" t="n">
-        <v>509649.2011353375</v>
+        <v>509649.2011353369</v>
       </c>
       <c r="J6" t="n">
-        <v>437394.5062641979</v>
+        <v>437394.5062641981</v>
       </c>
       <c r="K6" t="n">
-        <v>484971.955042203</v>
+        <v>484971.9550422032</v>
       </c>
       <c r="L6" t="n">
-        <v>433153.0431971662</v>
+        <v>433153.0431971658</v>
       </c>
       <c r="M6" t="n">
-        <v>374848.1859015001</v>
+        <v>374848.1859015002</v>
       </c>
       <c r="N6" t="n">
         <v>509649.2011353372</v>
       </c>
       <c r="O6" t="n">
-        <v>509649.2011353374</v>
+        <v>509649.2011353372</v>
       </c>
       <c r="P6" t="n">
-        <v>509649.2011353369</v>
+        <v>509649.201135337</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26740,46 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593896</v>
+        <v>117.5602045593883</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464227</v>
+        <v>372.0396308464213</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.784641482917479e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,16 +26962,16 @@
         <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026424</v>
+        <v>82.53894384026293</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576971</v>
+        <v>260.1834596576983</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370121</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406723</v>
+        <v>95.88311714406579</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081329</v>
+        <v>302.2476419081343</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406746</v>
+        <v>95.88311714406602</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081329</v>
+        <v>302.2476419081343</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406723</v>
+        <v>95.88311714406579</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081329</v>
+        <v>302.2476419081343</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>312.9485729435642</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194537</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>47.65202188525228</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
@@ -27436,7 +27438,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,16 +27466,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>23.86183685924608</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>30.83548668793298</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>4.700786234059393</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27561,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9072580679963</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>199.0830363186007</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528873</v>
+        <v>34.83641489529015</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280909</v>
+        <v>192.2558301280911</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385215</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27675,10 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>206.3515103596962</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27746,22 +27748,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>145.1423385850951</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>123.6902434899721</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27789,13 +27791,13 @@
         <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>26.83156628513663</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.3712176435847</v>
+        <v>78.37121764358487</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322657</v>
+        <v>68.41045236322675</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.0397976882337</v>
+        <v>227.0397976882338</v>
       </c>
       <c r="U7" t="n">
         <v>286.3074660576818</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>224.2590910371383</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>275.4609397168619</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27910,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>256.5910061519291</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>112.2111604889787</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>216.8777264409333</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31054,13 +31056,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M2" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O2" t="n">
         <v>23.72136057081218</v>
@@ -31069,16 +31071,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878779992</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M3" t="n">
         <v>19.08658709192331</v>
@@ -31142,25 +31144,25 @@
         <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689049</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,40 +31199,40 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S4" t="n">
         <v>1.100586177025627</v>
@@ -31239,7 +31241,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246814</v>
+        <v>0.4726038374246762</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025519</v>
+        <v>4.840054050025466</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231504</v>
+        <v>18.22005944231485</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662309</v>
+        <v>40.11165994662264</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480986</v>
+        <v>60.1169803848092</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439547</v>
+        <v>74.58043007439464</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819663</v>
+        <v>82.98509856819572</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127952</v>
+        <v>84.32788422127859</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288784</v>
+        <v>79.62842981288696</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646601</v>
+        <v>67.96102257646527</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869459</v>
+        <v>51.03589764869403</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262817</v>
+        <v>29.68720080262784</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531494</v>
+        <v>10.76945994531482</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326544</v>
+        <v>2.068823298326521</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0378083069939745</v>
+        <v>0.03780830699397408</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560455</v>
+        <v>0.2528653456560427</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941282</v>
+        <v>2.442146890941255</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596304</v>
+        <v>8.706109488596208</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182841</v>
+        <v>23.89022987182815</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078346</v>
+        <v>40.83220803078301</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483568</v>
+        <v>54.90394270483507</v>
       </c>
       <c r="M6" t="n">
-        <v>64.0703114848673</v>
+        <v>64.07031148486661</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270984</v>
+        <v>65.76606198270912</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106798</v>
+        <v>60.16309827106732</v>
       </c>
       <c r="P6" t="n">
-        <v>48.2861904349689</v>
+        <v>48.28619043496838</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.2780395612875</v>
+        <v>32.27803956128714</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134641</v>
+        <v>15.69983260134624</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707684</v>
+        <v>4.696862889707632</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359236</v>
+        <v>1.019224792359224</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368721</v>
+        <v>0.01663587800368703</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005386</v>
+        <v>0.2119938115005362</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886608</v>
+        <v>1.884817705886587</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761653</v>
+        <v>6.375232076761582</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308807</v>
+        <v>14.98796247308791</v>
       </c>
       <c r="K7" t="n">
-        <v>24.6298264634262</v>
+        <v>24.62982646342593</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072553</v>
+        <v>31.51769812072518</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094351</v>
+        <v>33.23099356094314</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898698</v>
+        <v>32.44083480898662</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736704</v>
+        <v>29.96436164736671</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275603</v>
+        <v>25.63968789275575</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846782</v>
+        <v>17.75159088846763</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651486</v>
+        <v>9.532012651651382</v>
       </c>
       <c r="S7" t="n">
-        <v>3.69447396951393</v>
+        <v>3.694473969513889</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477554</v>
+        <v>0.9057917400477454</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0115632988091203</v>
+        <v>0.01156329880912017</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34717,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>6.370323552522136</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>204.0920904142118</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>74.61189100715683</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N4" t="n">
         <v>53.79631798062265</v>
@@ -34872,7 +34874,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201057</v>
+        <v>28.16237059201013</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109941</v>
+        <v>164.1725419109934</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548587</v>
+        <v>256.4752296548579</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337564</v>
+        <v>302.1523988337555</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366728</v>
+        <v>292.2617450366719</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539465</v>
+        <v>230.3303996539456</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926791</v>
+        <v>158.5267349926784</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414979</v>
+        <v>41.04519843414923</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557055</v>
+        <v>23.14363854557029</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>144.176163513608</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284207</v>
+        <v>287.1899082284201</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464227</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>144.1761635136098</v>
+        <v>372.0396308464213</v>
       </c>
       <c r="O6" t="n">
-        <v>311.429173103353</v>
+        <v>311.4291731033524</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605758</v>
+        <v>232.7745516605753</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111151</v>
+        <v>102.3735532111147</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36033463754335</v>
+        <v>2.36033463754308</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104167</v>
+        <v>59.10772338104132</v>
       </c>
       <c r="M7" t="n">
-        <v>72.8148705227841</v>
+        <v>72.81487052278374</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821557</v>
+        <v>76.57300718821521</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140672</v>
+        <v>54.54948956140639</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764952</v>
+        <v>22.91824715764924</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35258,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970350593</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.38553859469411</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560236</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004653</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178369</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.093414931524</v>
+        <v>450.0931893251287</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507368</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,22 +35734,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>605.8017281075937</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>311.7175659683189</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>516.7753531914248</v>
+        <v>378.4011515192542</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>322.7897502027242</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36680,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P27" t="n">
-        <v>406.7164955186337</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>237.744794428193</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>322.7897502027242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>777.6835120841789</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>766.9461261273094</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>406.7164955186337</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>406.7164955186337</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>85.57005156953197</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38037,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>237.744794428193</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2903595.733744486</v>
+        <v>2896422.445034203</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702196</v>
+        <v>2346514.735702197</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8988586.153475817</v>
+        <v>8988586.153475815</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204.1970224230688</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023555</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>157.3961002323935</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>28.09341625156712</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>195.1009395542608</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7.203367682519121</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>182.8473337536611</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464213</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657417</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385218</v>
+        <v>101.274385373502</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>372.0396308464213</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281887</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129689</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>242.9546773564035</v>
       </c>
       <c r="X6" t="n">
-        <v>82.0827417135054</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>137.1649833439799</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674584</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>62.26390729945268</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>221.0021786982958</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>113.1400945265399</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>132.997194893274</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>69.40414780104443</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>24.09543807136859</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>16.65321666590875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>69.27142932050967</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>115.0655780342136</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>68.25603137269533</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>185.0314030821033</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>170.5809693952292</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>43.92677689897154</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20.36041793607752</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>68.41712019064346</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>103.6823614795158</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>70.02468195575962</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>20.99297442206898</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>76.2797837049395</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>18.69216212787784</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>475.3395538861566</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="C2" t="n">
-        <v>475.3395538861566</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="D2" t="n">
-        <v>475.3395538861566</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="E2" t="n">
-        <v>475.3395538861566</v>
+        <v>44.35312136793682</v>
       </c>
       <c r="F2" t="n">
-        <v>196.3935804494339</v>
+        <v>37.40762061873335</v>
       </c>
       <c r="G2" t="n">
-        <v>181.078480926889</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>181.078480926889</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438682</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228794</v>
+        <v>754.2855273228791</v>
       </c>
       <c r="T2" t="n">
-        <v>754.2855273228794</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="U2" t="n">
-        <v>754.2855273228794</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="V2" t="n">
-        <v>475.3395538861566</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="W2" t="n">
-        <v>475.3395538861566</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="X2" t="n">
-        <v>475.3395538861566</v>
+        <v>529.5587134138199</v>
       </c>
       <c r="Y2" t="n">
-        <v>475.3395538861566</v>
+        <v>529.5587134138199</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269.0098520841565</v>
+        <v>50.46970922908451</v>
       </c>
       <c r="C3" t="n">
-        <v>269.0098520841565</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D3" t="n">
-        <v>269.0098520841565</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>685.3494183114809</v>
+        <v>679.0427979944839</v>
       </c>
       <c r="N3" t="n">
-        <v>685.3494183114809</v>
+        <v>838.129241226138</v>
       </c>
       <c r="O3" t="n">
-        <v>951.8462318947647</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>836.17674519153</v>
       </c>
       <c r="T3" t="n">
-        <v>634.2968452196395</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="U3" t="n">
-        <v>437.2251891042245</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="V3" t="n">
-        <v>437.2251891042245</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="W3" t="n">
-        <v>437.2251891042245</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="X3" t="n">
-        <v>437.2251891042245</v>
+        <v>426.4453450141065</v>
       </c>
       <c r="Y3" t="n">
-        <v>437.2251891042245</v>
+        <v>218.6850462491525</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>943.2498839460313</v>
+        <v>51.68860422470543</v>
       </c>
       <c r="C5" t="n">
-        <v>943.2498839460313</v>
+        <v>51.68860422470543</v>
       </c>
       <c r="D5" t="n">
-        <v>943.2498839460313</v>
+        <v>51.68860422470543</v>
       </c>
       <c r="E5" t="n">
-        <v>758.5556074271817</v>
+        <v>51.68860422470543</v>
       </c>
       <c r="F5" t="n">
-        <v>382.7580005116047</v>
+        <v>44.74310347550196</v>
       </c>
       <c r="G5" t="n">
-        <v>367.7780675038164</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="H5" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="I5" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J5" t="n">
         <v>57.64391735380377</v>
@@ -4573,7 +4573,7 @@
         <v>220.1747338456873</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039966</v>
+        <v>474.0852112039967</v>
       </c>
       <c r="M5" t="n">
         <v>773.2160860494146</v>
@@ -4585,34 +4585,34 @@
         <v>1290.582309293126</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935877</v>
+        <v>1447.523776935878</v>
       </c>
       <c r="Q5" t="n">
         <v>1488.158523385685</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.762647488188</v>
+        <v>1385.861164422552</v>
       </c>
       <c r="S5" t="n">
-        <v>1166.509506436743</v>
+        <v>1385.861164422552</v>
       </c>
       <c r="T5" t="n">
-        <v>943.2498839460313</v>
+        <v>1385.861164422552</v>
       </c>
       <c r="U5" t="n">
-        <v>943.2498839460313</v>
+        <v>1132.014856744933</v>
       </c>
       <c r="V5" t="n">
-        <v>943.2498839460313</v>
+        <v>800.9519694013625</v>
       </c>
       <c r="W5" t="n">
-        <v>943.2498839460313</v>
+        <v>800.9519694013625</v>
       </c>
       <c r="X5" t="n">
-        <v>943.2498839460313</v>
+        <v>427.4862111402826</v>
       </c>
       <c r="Y5" t="n">
-        <v>943.2498839460313</v>
+        <v>51.68860422470543</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>668.8183407161666</v>
+        <v>658.9226223886625</v>
       </c>
       <c r="C6" t="n">
-        <v>668.8183407161666</v>
+        <v>484.4695931075355</v>
       </c>
       <c r="D6" t="n">
-        <v>519.8839310549154</v>
+        <v>335.5351834462842</v>
       </c>
       <c r="E6" t="n">
-        <v>360.6464760494599</v>
+        <v>176.2977284408287</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="I6" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J6" t="n">
-        <v>52.6753726278283</v>
+        <v>52.67537262782831</v>
       </c>
       <c r="K6" t="n">
-        <v>195.4097745063002</v>
+        <v>52.67537262782831</v>
       </c>
       <c r="L6" t="n">
-        <v>479.7277836524361</v>
+        <v>336.9933817739642</v>
       </c>
       <c r="M6" t="n">
-        <v>479.7277836524361</v>
+        <v>705.3126163119214</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903931</v>
+        <v>949.3968358693969</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562712</v>
+        <v>1257.711717241716</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706682</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="Q6" t="n">
         <v>1488.158523385685</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707607</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107476</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107476</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="U6" t="n">
-        <v>1005.96755776104</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="V6" t="n">
-        <v>1005.96755776104</v>
+        <v>1488.158523385685</v>
       </c>
       <c r="W6" t="n">
-        <v>751.7302010328387</v>
+        <v>1242.749758379217</v>
       </c>
       <c r="X6" t="n">
-        <v>668.8183407161666</v>
+        <v>1034.898258173684</v>
       </c>
       <c r="Y6" t="n">
-        <v>668.8183407161666</v>
+        <v>827.1379594087305</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.7631704677137</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="C7" t="n">
-        <v>29.7631704677137</v>
+        <v>176.6531179656241</v>
       </c>
       <c r="D7" t="n">
-        <v>29.7631704677137</v>
+        <v>176.6531179656241</v>
       </c>
       <c r="E7" t="n">
-        <v>29.7631704677137</v>
+        <v>176.6531179656241</v>
       </c>
       <c r="F7" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="G7" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="H7" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="J7" t="n">
-        <v>29.7631704677137</v>
+        <v>29.76317046771371</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888135</v>
+        <v>32.09990175888137</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611226</v>
+        <v>90.6165479061123</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236681</v>
+        <v>162.7032697236682</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400012</v>
+        <v>238.5105468400013</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057935</v>
+        <v>292.5145415057937</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918663</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918663</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918663</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="S7" t="n">
-        <v>92.65600612372651</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="T7" t="n">
-        <v>92.65600612372651</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="U7" t="n">
-        <v>92.65600612372651</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="V7" t="n">
-        <v>92.65600612372651</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="W7" t="n">
-        <v>29.7631704677137</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="X7" t="n">
-        <v>29.7631704677137</v>
+        <v>315.2036061918664</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.7631704677137</v>
+        <v>315.2036061918664</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>2309.202810756597</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y8" t="n">
-        <v>1919.063478780785</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4910,25 +4910,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>2786.879505108311</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>3400.7765748652</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>3708.096708145162</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>4037.959335809195</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>4317.499401027892</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.6251570374466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>533.6251570374466</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>383.5085176251108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>383.5085176251108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>383.5085176251108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>1164.055751909234</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>936.0662010112164</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>715.2736218676863</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5263,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5311,7 +5311,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.4843764226425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1081.891097357621</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>792.4739273206599</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>564.4843764226425</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.4843764226425</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4465.121280248433</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>414.0663679705859</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1428.945129830115</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1428.945129830115</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1428.945129830115</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1139.816491043673</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>885.1320028377861</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>595.7148328008255</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>595.7148328008255</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
-        <v>595.7148328008255</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5752,25 +5752,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3340.964766294737</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>3670.827393958769</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.0910440466404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>493.1548611187335</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>493.1548611187335</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>493.1548611187335</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>843.7395088768801</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>843.7395088768801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.7395088768801</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,22 +5980,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,13 +6007,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3846.392841244236</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3777.447355009191</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4549.85945949167</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U25" t="n">
-        <v>4549.85945949167</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V25" t="n">
-        <v>4295.174971285784</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W25" t="n">
-        <v>4295.174971285784</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X25" t="n">
-        <v>4067.185420387766</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>3846.392841244236</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6311,19 +6311,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141288</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3756.161980826922</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>3756.161980826922</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>3606.045341414586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>3606.045341414586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576118</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="T28" t="n">
-        <v>4525.994054365623</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U28" t="n">
-        <v>4236.865415579181</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V28" t="n">
-        <v>3982.180927373294</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W28" t="n">
-        <v>3982.180927373294</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X28" t="n">
-        <v>3937.810445657161</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y28" t="n">
-        <v>3937.810445657161</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>676.0189678006951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609664</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>696.5850465240057</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>696.5850465240057</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6694,31 +6694,31 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
@@ -6782,22 +6782,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4036.173262924875</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>4036.173262924875</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>4036.173262924875</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924875</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426965</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4326.074044281177</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>4256.965842068405</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>4256.965842068405</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>4256.965842068405</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>4036.173262924875</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>2649.889045452864</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>2896.654173359328</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>3203.974306639289</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>3963.250971505326</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>4242.791036724023</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4763.09165845977</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>496.7497906007063</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7183,16 +7183,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7204,7 +7204,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7256,19 +7256,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3845.975811154764</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3775.243809179249</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3775.243809179249</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014293</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4571.725934227851</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>4027.624275985004</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4027.624275985004</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>4027.624275985004</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515098</v>
@@ -7438,25 +7438,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>181.9314425141225</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>592.8217113586352</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>734.0220331715246</v>
       </c>
       <c r="C43" t="n">
-        <v>324.3840174432676</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D43" t="n">
-        <v>174.2673780309318</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028587</v>
@@ -7611,10 +7611,10 @@
         <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7657,16 +7657,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3796.328326855533</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>3796.328326855533</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>3646.211687443197</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>3646.211687443197</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>3646.211687443197</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3478.036365763018</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4460.650830789677</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>4205.96634258379</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>4205.96634258379</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>3977.976791685773</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>3977.976791685773</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,16 +8069,16 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>111.7499598249992</v>
+        <v>272.4433368266701</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>194.2018111649844</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>241.185394457184</v>
+        <v>97.00923094357594</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>78.06372243715171</v>
+        <v>450.103353283573</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470455</v>
+        <v>312.1253668253469</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247344</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>242.999774393604</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>295.3773510571275</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>104.6241510367942</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>96.03744927814608</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9959,22 +9959,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>360.5026862907258</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>444.4889386861661</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>433.7515527292966</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,22 +10904,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P39" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>43.65987261462531</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>142.398130392009</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>235.4844266579192</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>2.105225817279774</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.69292308328312</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>30.35546998871764</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>98.9907897259325</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>36.516157976286</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>27.33984058837405</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>181.7828784900656</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.4715622458598</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>50.96659166316</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>183.7205231331845</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>44.93311153869652</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>97.22213914286822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>146.2538466765589</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>70.15417894162967</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>130.2216662396583</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766177.3883073515</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766177.3883073514</v>
+        <v>766177.3883073512</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>766177.3883073514</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766177.3883073512</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766177.3883073514</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766177.3883073512</v>
+        <v>766177.3883073513</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380342</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672192</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645197.9485672198</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="M2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="F2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.948567219</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672191</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>645197.9485672197</v>
       </c>
-      <c r="M2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645197.9485672194</v>
-      </c>
       <c r="O2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672199</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672197</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703828</v>
+        <v>106137.151770383</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252118</v>
+        <v>316711.9424252117</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113901</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313398</v>
+        <v>24677.24609313402</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817163</v>
+        <v>76496.15793817159</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>43561.42148316554</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
         <v>43561.42148316556</v>
@@ -26435,31 +26435,31 @@
         <v>43561.42148316556</v>
       </c>
       <c r="H4" t="n">
-        <v>43561.42148316555</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="I4" t="n">
-        <v>43561.42148316556</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="J4" t="n">
         <v>43561.42148316556</v>
       </c>
       <c r="K4" t="n">
+        <v>43561.42148316558</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43561.42148316558</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43561.42148316556</v>
+      </c>
+      <c r="N4" t="n">
         <v>43561.42148316557</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43561.42148316557</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43561.42148316557</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43561.42148316558</v>
       </c>
       <c r="O4" t="n">
         <v>43561.42148316557</v>
       </c>
       <c r="P4" t="n">
-        <v>43561.42148316558</v>
+        <v>43561.42148316557</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>182957.7707375282</v>
+        <v>182957.7707375281</v>
       </c>
       <c r="C6" t="n">
-        <v>225525.2264043509</v>
+        <v>225525.2264043505</v>
       </c>
       <c r="D6" t="n">
-        <v>85581.84325698222</v>
+        <v>85581.84325698263</v>
       </c>
       <c r="E6" t="n">
-        <v>-15510.83534155889</v>
+        <v>-16485.42660128065</v>
       </c>
       <c r="F6" t="n">
-        <v>509649.2011353371</v>
+        <v>508674.6098756158</v>
       </c>
       <c r="G6" t="n">
-        <v>509649.2011353374</v>
+        <v>508674.6098756155</v>
       </c>
       <c r="H6" t="n">
-        <v>509649.2011353368</v>
+        <v>508674.6098756153</v>
       </c>
       <c r="I6" t="n">
-        <v>509649.2011353369</v>
+        <v>508674.6098756155</v>
       </c>
       <c r="J6" t="n">
-        <v>437394.5062641981</v>
+        <v>436419.9150044768</v>
       </c>
       <c r="K6" t="n">
-        <v>484971.9550422032</v>
+        <v>483997.3637824819</v>
       </c>
       <c r="L6" t="n">
-        <v>433153.0431971658</v>
+        <v>432178.451937444</v>
       </c>
       <c r="M6" t="n">
-        <v>374848.1859015002</v>
+        <v>373873.5946417785</v>
       </c>
       <c r="N6" t="n">
-        <v>509649.2011353372</v>
+        <v>508674.6098756158</v>
       </c>
       <c r="O6" t="n">
-        <v>509649.2011353372</v>
+        <v>508674.609875616</v>
       </c>
       <c r="P6" t="n">
-        <v>509649.201135337</v>
+        <v>508674.6098756158</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593883</v>
+        <v>117.5602045593884</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
         <v>372.0396308464213</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026293</v>
+        <v>82.53894384026309</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576983</v>
+        <v>260.1834596576982</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406579</v>
+        <v>95.88311714406595</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081343</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406602</v>
+        <v>95.88311714406618</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081343</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406579</v>
+        <v>95.88311714406595</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081343</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>161.0758693479388</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>47.65202188525228</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>144.6150827367486</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>30.83548668793298</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.700786234059393</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>138.2176803404121</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>161.6656840978772</v>
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>199.0830363186007</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489529015</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280911</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>18.90753176501983</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>14.19830780963224</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281887</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129689</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>8.740305804516083</v>
       </c>
       <c r="X6" t="n">
-        <v>123.6902434899721</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>30.08183775464792</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.7789855469582</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358487</v>
+        <v>78.37121764358486</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322675</v>
+        <v>68.41045236322674</v>
       </c>
       <c r="R7" t="n">
         <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882338</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>224.2590910371383</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>133.6808629223872</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27906,7 +27906,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>256.5910061519291</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28061,13 +28061,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>216.8777264409333</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760121</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470703</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840335</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870382</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626981</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132621</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052019</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779992</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335885</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358774</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192331</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O3" t="n">
-        <v>17.9226257568905</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164379</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263572</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504677</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497753</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008306</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006209</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623707</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J4" t="n">
-        <v>4.46492368217439</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170849</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894687</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948822</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394054</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179689</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938415</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587927</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390064</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0034447141690943</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246762</v>
+        <v>0.4726038374246765</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025466</v>
+        <v>4.84005405002547</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231485</v>
+        <v>18.22005944231486</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662264</v>
+        <v>40.11165994662268</v>
       </c>
       <c r="K5" t="n">
-        <v>60.1169803848092</v>
+        <v>60.11698038480925</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439464</v>
+        <v>74.58043007439471</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819572</v>
+        <v>82.9850985681958</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127859</v>
+        <v>84.32788422127867</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288696</v>
+        <v>79.62842981288703</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646527</v>
+        <v>67.96102257646533</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869403</v>
+        <v>51.03589764869407</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262784</v>
+        <v>29.68720080262786</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531482</v>
+        <v>10.76945994531483</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326521</v>
+        <v>2.068823298326523</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397408</v>
+        <v>0.03780830699397412</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560427</v>
+        <v>0.252865345656043</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941255</v>
+        <v>2.442146890941257</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596208</v>
+        <v>8.706109488596216</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182815</v>
+        <v>23.89022987182816</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078301</v>
+        <v>40.83220803078304</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483507</v>
+        <v>54.90394270483512</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486661</v>
+        <v>64.07031148486666</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270912</v>
+        <v>65.76606198270918</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106732</v>
+        <v>60.16309827106737</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496838</v>
+        <v>48.28619043496841</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128714</v>
+        <v>32.27803956128717</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134624</v>
+        <v>15.69983260134625</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707632</v>
+        <v>4.696862889707637</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359224</v>
+        <v>1.019224792359225</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368703</v>
+        <v>0.01663587800368704</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005362</v>
+        <v>0.2119938115005364</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886587</v>
+        <v>1.884817705886589</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761582</v>
+        <v>6.375232076761588</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308791</v>
+        <v>14.98796247308792</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342593</v>
+        <v>24.62982646342595</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072518</v>
+        <v>31.51769812072521</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094314</v>
+        <v>33.23099356094317</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898662</v>
+        <v>32.44083480898665</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736671</v>
+        <v>29.96436164736674</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275575</v>
+        <v>25.63968789275577</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846763</v>
+        <v>17.75159088846765</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651382</v>
+        <v>9.532012651651389</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513889</v>
+        <v>3.694473969513892</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477454</v>
+        <v>0.9057917400477462</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912017</v>
+        <v>0.01156329880912018</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424832</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522136</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315785</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>160.6933770016709</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>74.61189100715683</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M4" t="n">
-        <v>49.48341136478941</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831903</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201013</v>
+        <v>28.16237059201016</v>
       </c>
       <c r="K5" t="n">
         <v>164.1725419109934</v>
@@ -34944,19 +34944,19 @@
         <v>256.4752296548579</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337555</v>
+        <v>302.1523988337556</v>
       </c>
       <c r="N5" t="n">
         <v>292.2617450366719</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539456</v>
+        <v>230.3303996539457</v>
       </c>
       <c r="P5" t="n">
         <v>158.5267349926784</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414923</v>
+        <v>41.04519843414927</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557029</v>
+        <v>23.14363854557031</v>
       </c>
       <c r="K6" t="n">
-        <v>144.176163513608</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>287.1899082284201</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>372.0396308464213</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464213</v>
+        <v>246.5497167247228</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033524</v>
+        <v>311.4291731033525</v>
       </c>
       <c r="P6" t="n">
         <v>232.7745516605753</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111147</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36033463754308</v>
+        <v>2.360334637543097</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104132</v>
+        <v>59.10772338104135</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278374</v>
+        <v>72.81487052278376</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821521</v>
+        <v>76.57300718821524</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140639</v>
+        <v>54.54948956140642</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764924</v>
+        <v>22.91824715764926</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>450.0931893251287</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,7 +35734,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>605.8017281075937</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>311.7175659683189</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
         <v>528.689756130333</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36214,10 +36214,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>378.4011515192542</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36679,22 +36679,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>642.8663885318339</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36852,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37159,16 +37159,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>777.6835120841789</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349808</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>766.9461261273094</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37624,22 +37624,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P39" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>88.0130327850741</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>85.57005156953197</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38037,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
